--- a/doc/ue_hud.xlsx
+++ b/doc/ue_hud.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABDC16D-960B-4261-BF83-069612855E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962EAA5-3260-4C53-AA78-4CBFF759E96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
-    <sheet name="初始化" sheetId="2" r:id="rId2"/>
-    <sheet name="渲染" sheetId="3" r:id="rId3"/>
-    <sheet name="销毁" sheetId="5" r:id="rId4"/>
+    <sheet name="调度时机" sheetId="6" r:id="rId2"/>
+    <sheet name="初始化" sheetId="2" r:id="rId3"/>
+    <sheet name="渲染" sheetId="3" r:id="rId4"/>
+    <sheet name="销毁" sheetId="5" r:id="rId5"/>
+    <sheet name="备注" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t>本身没有啥逻辑处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,47 +272,163 @@
     <t>UPROPERTY()</t>
   </si>
   <si>
+    <t>void AHUD::ShowDebugInfo(float&amp; YL, float&amp; YPos)</t>
+  </si>
+  <si>
+    <t>显示DEBUG信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AHUD::ShowDebug(FName DebugType)</t>
+  </si>
+  <si>
+    <t>namespace ShowDebugNames</t>
+  </si>
+  <si>
+    <t>static const FName Reset(TEXT("Reset"));</t>
+  </si>
+  <si>
+    <t>static const FName HitBox(TEXT("HitBox"));</t>
+  </si>
+  <si>
+    <t>static const FName Animation(TEXT("Animation"));</t>
+  </si>
+  <si>
+    <t>static const FName Physics(TEXT("Physics"));</t>
+  </si>
+  <si>
+    <t>显示的几种类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的DEBUG信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常TICK时会被调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景的时候会被调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>// We want to update streaming immediately so that there's no tick prior to processing any levels that should be initially visible</t>
+  </si>
+  <si>
+    <t>// that requires calculating the scene, so redraw everything now to take care of it all though don't present the frame.</t>
+  </si>
+  <si>
+    <t>RedrawViewports(false);</t>
+  </si>
+  <si>
+    <t>// Display loading screen.</t>
+  </si>
+  <si>
+    <t>// Check if a loading movie is playing.  If so it is not safe to redraw the viewport due to potential race conditions with font rendering</t>
+  </si>
+  <si>
+    <t>bool bIsLoadingMovieCurrentlyPlaying = FCoreDelegates::IsLoadingMovieCurrentlyPlaying.IsBound() ? FCoreDelegates::IsLoadingMovieCurrentlyPlaying.Execute() : false;</t>
+  </si>
+  <si>
+    <t>if(!bIsLoadingMovieCurrentlyPlaying)</t>
+  </si>
+  <si>
+    <t>LoadMapRedrawViewports();</t>
+  </si>
+  <si>
+    <t>切换前调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换后调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!bIdleMode &amp;&amp; !IsRunningDedicatedServer() &amp;&amp; !IsRunningCommandlet() &amp;&amp; FEmbeddedCommunication::IsAwakeForRendering())</t>
+  </si>
+  <si>
+    <t>// Render everything.</t>
+  </si>
+  <si>
+    <t>RedrawViewports();</t>
+  </si>
+  <si>
+    <t>// Some tasks can only be done once we finish all scenes/viewports</t>
+  </si>
+  <si>
+    <t>GetRendererModule().PostRenderAllViewports();</t>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>通知DS切换场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::TickWorldTravel(FWorldContext&amp; Context, float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>if (Context.PendingNetGame != nullptr)</t>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;LoadMapCompleted(this, Context, bLoadedMapSuccessfully, Error);</t>
+  </si>
+  <si>
+    <t>// Kill the pending level.</t>
+  </si>
+  <si>
+    <t>Context.PendingNetGame = nullptr;</t>
+  </si>
+  <si>
+    <t>Engine-&gt;RedrawViewports(false);</t>
+  </si>
+  <si>
+    <t>可以显示一些玩家的信息，主要用于DEBUG信息的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostRender里面的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了bShowDebugInfo，就展示各种DEBUG信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了bShowHUD（默认就是设置），则调用DrawHUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TArray&lt;AActor*&gt; PostRenderedActors;</t>
-  </si>
-  <si>
-    <t>void AHUD::ShowDebugInfo(float&amp; YL, float&amp; YPos)</t>
-  </si>
-  <si>
-    <t>显示DEBUG信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AHUD::ShowDebug(FName DebugType)</t>
-  </si>
-  <si>
-    <t>namespace ShowDebugNames</t>
-  </si>
-  <si>
-    <t>static const FName Reset(TEXT("Reset"));</t>
-  </si>
-  <si>
-    <t>static const FName HitBox(TEXT("HitBox"));</t>
-  </si>
-  <si>
-    <t>static const FName Animation(TEXT("Animation"));</t>
-  </si>
-  <si>
-    <t>static const FName Physics(TEXT("Physics"));</t>
-  </si>
-  <si>
-    <t>显示的几种类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的DEBUG信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以显示一些玩家的信息，主要用于DEBUG信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了bShowOverlays（默认不开启），则调用PostRenderedActors的PostRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawHUD里面其实也没做什么事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就是调用了蓝图的ReceiveDrawHUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在DrawHUD里面，调用这类对象的PostRenderFor函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，感觉这个类就是调试使用的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +467,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,10 +496,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,16 +522,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -434,7 +561,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8915400" y="2533650"/>
+          <a:off x="9601200" y="390525"/>
           <a:ext cx="8601075" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -720,25 +847,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N32"/>
+  <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -746,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -754,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -762,91 +894,133 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -858,6 +1032,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A362E-5563-4F29-91A1-5178C6F4B484}">
+  <dimension ref="B3:Q42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D37CCF8-25D0-4225-B6FF-8E41FB9B4176}">
   <dimension ref="B3:F34"/>
   <sheetViews>
@@ -994,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7168B0C-4D8C-4636-9C35-490D8689A206}">
   <dimension ref="B5:P78"/>
   <sheetViews>
@@ -1326,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A79679E-CE02-40B8-BC9E-EA5582191AA8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1337,4 +1714,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4389B804-322A-4ED4-9112-2BFEF1C89428}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>